--- a/data/trans_dic/P25C$productsfarma_2023-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P25C$productsfarma_2023-Edad-trans_dic.xlsx
@@ -567,10 +567,10 @@
         <v>0</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>0.08340083012350175</v>
+        <v>0.08340083012350173</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>0.06324074472436435</v>
+        <v>0.06324074472436433</v>
       </c>
     </row>
     <row r="5">
@@ -597,10 +597,10 @@
       </c>
       <c r="C6" s="5" t="inlineStr"/>
       <c r="D6" s="5" t="n">
-        <v>0.4342250944245438</v>
+        <v>0.4313174839055796</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.2811025119702115</v>
+        <v>0.3567020904886996</v>
       </c>
     </row>
     <row r="7">
@@ -621,7 +621,7 @@
         <v>0</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.06982762352738238</v>
+        <v>0.06982762352738239</v>
       </c>
     </row>
     <row r="8">
@@ -647,11 +647,11 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.4866611094941471</v>
+        <v>0.4408309256732452</v>
       </c>
       <c r="D9" s="5" t="inlineStr"/>
       <c r="E9" s="5" t="n">
-        <v>0.2422259294049463</v>
+        <v>0.2355726057132638</v>
       </c>
     </row>
     <row r="10">
@@ -666,10 +666,10 @@
         </is>
       </c>
       <c r="C10" s="5" t="n">
-        <v>0.06975775657302871</v>
+        <v>0.0697577565730287</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>0.04435958848551026</v>
+        <v>0.04435958848551027</v>
       </c>
       <c r="E10" s="5" t="n">
         <v>0.0561920793055497</v>
@@ -686,10 +686,10 @@
         <v>0</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.01204646138011451</v>
+        <v>0.0119698604025485</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.01860528857629193</v>
+        <v>0.02203400806629357</v>
       </c>
     </row>
     <row r="12">
@@ -700,13 +700,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.2338154469658405</v>
+        <v>0.2308483847109567</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.1067472877401499</v>
+        <v>0.1038249751779326</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.1349667564900718</v>
+        <v>0.1456577473551947</v>
       </c>
     </row>
     <row r="13">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="C13" s="5" t="n">
-        <v>0.03016616521841597</v>
+        <v>0.03016616521841596</v>
       </c>
       <c r="D13" s="5" t="n">
         <v>0.03763443639029696</v>
@@ -738,13 +738,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.00788788273446064</v>
+        <v>0.007955675111318575</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.01473225752759873</v>
+        <v>0.01480058322395608</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.01539495876090707</v>
+        <v>0.01415176080908338</v>
       </c>
     </row>
     <row r="15">
@@ -755,13 +755,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.08059809467998443</v>
+        <v>0.08281344038634224</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.08245154293070901</v>
+        <v>0.07723726227971295</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.06762973088221157</v>
+        <v>0.06527838688554798</v>
       </c>
     </row>
     <row r="16">
@@ -776,13 +776,13 @@
         </is>
       </c>
       <c r="C16" s="5" t="n">
-        <v>0.05271341385833256</v>
+        <v>0.05271341385833255</v>
       </c>
       <c r="D16" s="5" t="n">
         <v>0.01962081937971718</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>0.04068025443610535</v>
+        <v>0.04068025443610537</v>
       </c>
     </row>
     <row r="17">
@@ -793,13 +793,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.02803786381968076</v>
+        <v>0.02679181992160597</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.0055231218971307</v>
+        <v>0.005557577446949869</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.02095569442029488</v>
+        <v>0.02250402046390751</v>
       </c>
     </row>
     <row r="18">
@@ -810,13 +810,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.09782125945692359</v>
+        <v>0.09070383159588478</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.05466283979558621</v>
+        <v>0.05764992877595274</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.06733302895678477</v>
+        <v>0.07073620525841896</v>
       </c>
     </row>
     <row r="19">
@@ -831,7 +831,7 @@
         </is>
       </c>
       <c r="C19" s="5" t="n">
-        <v>0.02205770707797719</v>
+        <v>0.02205770707797718</v>
       </c>
       <c r="D19" s="5" t="n">
         <v>0.02265658673213426</v>
@@ -848,13 +848,13 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.008618041757573958</v>
+        <v>0.007493501099733028</v>
       </c>
       <c r="D20" s="5" t="n">
         <v>0</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.00923120240123009</v>
+        <v>0.008844991431529873</v>
       </c>
     </row>
     <row r="21">
@@ -865,13 +865,13 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.05014592943697641</v>
+        <v>0.04704904917892303</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.08067002915835976</v>
+        <v>0.08074660864137137</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.04546231190756563</v>
+        <v>0.04459925889580797</v>
       </c>
     </row>
     <row r="22">
@@ -889,7 +889,7 @@
         <v>0.007059199803832242</v>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.04422961054104854</v>
+        <v>0.04422961054104855</v>
       </c>
       <c r="E22" s="5" t="n">
         <v>0.01198063860451354</v>
@@ -909,7 +909,7 @@
         <v>0</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.002884618402070969</v>
+        <v>0.002902910161303222</v>
       </c>
     </row>
     <row r="24">
@@ -920,13 +920,13 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.03139625245438617</v>
+        <v>0.0360925228523858</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.1577724838905436</v>
+        <v>0.1415770706944949</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.03587183354333892</v>
+        <v>0.0392633011103</v>
       </c>
     </row>
     <row r="25">
@@ -941,13 +941,13 @@
         </is>
       </c>
       <c r="C25" s="5" t="n">
-        <v>0.03700244563604546</v>
+        <v>0.03700244563604547</v>
       </c>
       <c r="D25" s="5" t="n">
         <v>0.03142607781560275</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>0.03501402337604439</v>
+        <v>0.03501402337604438</v>
       </c>
     </row>
     <row r="26">
@@ -958,13 +958,13 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.02449291850169862</v>
+        <v>0.02290907820717243</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.01976397785951483</v>
+        <v>0.01803770349200864</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.02525629866208581</v>
+        <v>0.02592352117620974</v>
       </c>
     </row>
     <row r="27">
@@ -975,13 +975,13 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.05811094960363285</v>
+        <v>0.05732656723024927</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.05134221283591692</v>
+        <v>0.05063811536776375</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.0496871103077462</v>
+        <v>0.0495980774712686</v>
       </c>
     </row>
     <row r="28">
@@ -1142,10 +1142,10 @@
       </c>
       <c r="C7" s="6" t="inlineStr"/>
       <c r="D7" s="6" t="n">
-        <v>8806</v>
+        <v>8747</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>7518</v>
+        <v>9540</v>
       </c>
     </row>
     <row r="8">
@@ -1209,11 +1209,11 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>12524</v>
+        <v>11344</v>
       </c>
       <c r="D11" s="6" t="inlineStr"/>
       <c r="E11" s="6" t="n">
-        <v>14486</v>
+        <v>14088</v>
       </c>
     </row>
     <row r="12">
@@ -1265,10 +1265,10 @@
         <v>0</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>681</v>
+        <v>676</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>1968</v>
+        <v>2331</v>
       </c>
     </row>
     <row r="15">
@@ -1279,13 +1279,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>11523</v>
+        <v>11377</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>6031</v>
+        <v>5866</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>14277</v>
+        <v>15408</v>
       </c>
     </row>
     <row r="16">
@@ -1334,13 +1334,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>894</v>
+        <v>902</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>1362</v>
+        <v>1369</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>3169</v>
+        <v>2913</v>
       </c>
     </row>
     <row r="19">
@@ -1351,13 +1351,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>9139</v>
+        <v>9390</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>7625</v>
+        <v>7143</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>13923</v>
+        <v>13439</v>
       </c>
     </row>
     <row r="20">
@@ -1406,13 +1406,13 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>4629</v>
+        <v>4423</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>5436</v>
+        <v>5838</v>
       </c>
     </row>
     <row r="23">
@@ -1423,13 +1423,13 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>16149</v>
+        <v>14974</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>5156</v>
+        <v>5438</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>17467</v>
+        <v>18350</v>
       </c>
     </row>
     <row r="24">
@@ -1478,13 +1478,13 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>1479</v>
+        <v>1286</v>
       </c>
       <c r="D26" s="6" t="n">
         <v>0</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>2033</v>
+        <v>1948</v>
       </c>
     </row>
     <row r="27">
@@ -1495,13 +1495,13 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>8605</v>
+        <v>8074</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>3920</v>
+        <v>3924</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>10011</v>
+        <v>9821</v>
       </c>
     </row>
     <row r="28">
@@ -1556,7 +1556,7 @@
         <v>0</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>428</v>
+        <v>430</v>
       </c>
     </row>
     <row r="31">
@@ -1567,13 +1567,13 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>4040</v>
+        <v>4644</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>3098</v>
+        <v>2780</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>5320</v>
+        <v>5823</v>
       </c>
     </row>
     <row r="32">
@@ -1622,13 +1622,13 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>16171</v>
+        <v>15125</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>7231</v>
+        <v>6600</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>25916</v>
+        <v>26600</v>
       </c>
     </row>
     <row r="35">
@@ -1639,13 +1639,13 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>38366</v>
+        <v>37848</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>18786</v>
+        <v>18528</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>50984</v>
+        <v>50893</v>
       </c>
     </row>
     <row r="36">
